--- a/Data_frame/balancos_definitivos/AUTM3.xlsx
+++ b/Data_frame/balancos_definitivos/AUTM3.xlsx
@@ -3898,51 +3898,21 @@
       <c r="D57" t="n">
         <v>464416.992</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3957,51 +3927,21 @@
       <c r="D58" t="n">
         <v>-75289</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4017,7 +3957,7 @@
         <v>389128</v>
       </c>
       <c r="E59" t="n">
-        <v>428781.056</v>
+        <v>390490.88</v>
       </c>
       <c r="F59" t="n">
         <v>409456</v>
@@ -4041,7 +3981,7 @@
         <v>417828.992</v>
       </c>
       <c r="M59" t="n">
-        <v>448109.056</v>
+        <v>448109.024</v>
       </c>
       <c r="N59" t="n">
         <v>462686.016</v>
@@ -4053,7 +3993,7 @@
         <v>632289.024</v>
       </c>
       <c r="Q59" t="n">
-        <v>932511.232</v>
+        <v>932511.1040000001</v>
       </c>
       <c r="R59" t="n">
         <v>989000</v>
@@ -4076,7 +4016,7 @@
         <v>-283494.016</v>
       </c>
       <c r="E60" t="n">
-        <v>-297945.28</v>
+        <v>-283268.992</v>
       </c>
       <c r="F60" t="n">
         <v>-298100</v>
@@ -4088,7 +4028,7 @@
         <v>-277832.992</v>
       </c>
       <c r="I60" t="n">
-        <v>-282228.096</v>
+        <v>-282228.032</v>
       </c>
       <c r="J60" t="n">
         <v>-268752</v>
@@ -4135,7 +4075,7 @@
         <v>105634</v>
       </c>
       <c r="E61" t="n">
-        <v>130835.776</v>
+        <v>107221.984</v>
       </c>
       <c r="F61" t="n">
         <v>111356</v>
@@ -4147,7 +4087,7 @@
         <v>100274</v>
       </c>
       <c r="I61" t="n">
-        <v>77097.984</v>
+        <v>77098</v>
       </c>
       <c r="J61" t="n">
         <v>89687</v>
@@ -4159,7 +4099,7 @@
         <v>101706</v>
       </c>
       <c r="M61" t="n">
-        <v>97650.976</v>
+        <v>97650.984</v>
       </c>
       <c r="N61" t="n">
         <v>109994</v>
@@ -4194,7 +4134,7 @@
         <v>-3354</v>
       </c>
       <c r="E62" t="n">
-        <v>-5406</v>
+        <v>-5042</v>
       </c>
       <c r="F62" t="n">
         <v>-9190</v>
@@ -4253,7 +4193,7 @@
         <v>-21856</v>
       </c>
       <c r="E63" t="n">
-        <v>-27550.236</v>
+        <v>-18440</v>
       </c>
       <c r="F63" t="n">
         <v>-20227</v>
@@ -4305,15 +4245,9 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
         <v>0</v>
       </c>
@@ -4430,7 +4364,7 @@
         <v>-19999</v>
       </c>
       <c r="E66" t="n">
-        <v>-19026.576</v>
+        <v>-29771</v>
       </c>
       <c r="F66" t="n">
         <v>-11666</v>
@@ -4548,7 +4482,7 @@
         <v>1368</v>
       </c>
       <c r="E68" t="n">
-        <v>-24755.36</v>
+        <v>-10044</v>
       </c>
       <c r="F68" t="n">
         <v>751</v>
@@ -4607,7 +4541,7 @@
         <v>17613</v>
       </c>
       <c r="E69" t="n">
-        <v>-23600.368</v>
+        <v>8490</v>
       </c>
       <c r="F69" t="n">
         <v>15213</v>
@@ -4666,7 +4600,7 @@
         <v>-16245</v>
       </c>
       <c r="E70" t="n">
-        <v>-1154.992</v>
+        <v>-18534</v>
       </c>
       <c r="F70" t="n">
         <v>-14462</v>
@@ -4724,51 +4658,21 @@
       <c r="D71" t="n">
         <v>0</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4783,51 +4687,21 @@
       <c r="D72" t="n">
         <v>0</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4842,51 +4716,21 @@
       <c r="D73" t="n">
         <v>0</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4902,7 +4746,7 @@
         <v>61793</v>
       </c>
       <c r="E74" t="n">
-        <v>54097.6</v>
+        <v>43925.008</v>
       </c>
       <c r="F74" t="n">
         <v>71024</v>
@@ -4961,7 +4805,7 @@
         <v>-14193</v>
       </c>
       <c r="E75" t="n">
-        <v>-28464.62</v>
+        <v>-4642</v>
       </c>
       <c r="F75" t="n">
         <v>-9507</v>
@@ -5020,7 +4864,7 @@
         <v>-4371</v>
       </c>
       <c r="E76" t="n">
-        <v>14234.734</v>
+        <v>-1920</v>
       </c>
       <c r="F76" t="n">
         <v>-9024</v>
@@ -5078,51 +4922,21 @@
       <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
-        <v>0</v>
-      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5137,51 +4951,21 @@
       <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5256,7 +5040,7 @@
         <v>43229</v>
       </c>
       <c r="E80" t="n">
-        <v>32458.712</v>
+        <v>29954</v>
       </c>
       <c r="F80" t="n">
         <v>50198</v>
